--- a/knn_result.xlsx
+++ b/knn_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Informations" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
   <si>
     <t>Configuration</t>
   </si>
@@ -38,51 +38,21 @@
     <t>Majority</t>
   </si>
   <si>
-    <t>Number of training example</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of tests </t>
-  </si>
-  <si>
     <t>Numbers of neighbours</t>
   </si>
   <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
     <t>Method</t>
   </si>
   <si>
     <t>Histograms</t>
   </si>
   <si>
-    <t>41.7417</t>
-  </si>
-  <si>
     <t>Preprocessing</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>45.8458</t>
-  </si>
-  <si>
-    <t>48.8488</t>
-  </si>
-  <si>
-    <t>50.6506</t>
-  </si>
-  <si>
-    <t>49.1491</t>
-  </si>
-  <si>
-    <t>49.8498</t>
-  </si>
-  <si>
-    <t>48.9489</t>
-  </si>
-  <si>
     <t>We have 4 differents datasets that we are using to compare our results.</t>
   </si>
   <si>
@@ -99,6 +69,495 @@
   </si>
   <si>
     <t>Dataset N°</t>
+  </si>
+  <si>
+    <t>Computational time</t>
+  </si>
+  <si>
+    <t>0.474384</t>
+  </si>
+  <si>
+    <t>0.504151</t>
+  </si>
+  <si>
+    <t>0.472358</t>
+  </si>
+  <si>
+    <t>0.50538</t>
+  </si>
+  <si>
+    <t>0.476472</t>
+  </si>
+  <si>
+    <t>0.466349</t>
+  </si>
+  <si>
+    <t>0.487378</t>
+  </si>
+  <si>
+    <t>0.472887</t>
+  </si>
+  <si>
+    <t>0.497414</t>
+  </si>
+  <si>
+    <t>0.607386</t>
+  </si>
+  <si>
+    <t>0.82137</t>
+  </si>
+  <si>
+    <t>0.488405</t>
+  </si>
+  <si>
+    <t>0.791655</t>
+  </si>
+  <si>
+    <t>0.681573</t>
+  </si>
+  <si>
+    <t>0.522234</t>
+  </si>
+  <si>
+    <t>0.517951</t>
+  </si>
+  <si>
+    <t>0.489388</t>
+  </si>
+  <si>
+    <t>0.48842</t>
+  </si>
+  <si>
+    <t>0.519051</t>
+  </si>
+  <si>
+    <t>0.476865</t>
+  </si>
+  <si>
+    <t>0.501968</t>
+  </si>
+  <si>
+    <t>0.478425</t>
+  </si>
+  <si>
+    <t>0.49245</t>
+  </si>
+  <si>
+    <t>0.481412</t>
+  </si>
+  <si>
+    <t>Accuracy %</t>
+  </si>
+  <si>
+    <t>0.136599</t>
+  </si>
+  <si>
+    <t>0.119592</t>
+  </si>
+  <si>
+    <t>0.12061</t>
+  </si>
+  <si>
+    <t>0.115112</t>
+  </si>
+  <si>
+    <t>0.118102</t>
+  </si>
+  <si>
+    <t>0.118087</t>
+  </si>
+  <si>
+    <t>0.113081</t>
+  </si>
+  <si>
+    <t>0.116089</t>
+  </si>
+  <si>
+    <t>0.113585</t>
+  </si>
+  <si>
+    <t>0.118086</t>
+  </si>
+  <si>
+    <t>0.135115</t>
+  </si>
+  <si>
+    <t>0.1171</t>
+  </si>
+  <si>
+    <t>0.119077</t>
+  </si>
+  <si>
+    <t>0.114085</t>
+  </si>
+  <si>
+    <t>0.124105</t>
+  </si>
+  <si>
+    <t>0.115089</t>
+  </si>
+  <si>
+    <t>0.115098</t>
+  </si>
+  <si>
+    <t>0.114602</t>
+  </si>
+  <si>
+    <t>0.112083</t>
+  </si>
+  <si>
+    <t>0.132096</t>
+  </si>
+  <si>
+    <t>0.12309</t>
+  </si>
+  <si>
+    <t>0.117629</t>
+  </si>
+  <si>
+    <t>0.11509</t>
+  </si>
+  <si>
+    <t>0.0050025</t>
+  </si>
+  <si>
+    <t>0.00500393</t>
+  </si>
+  <si>
+    <t>0.00500298</t>
+  </si>
+  <si>
+    <t>0.00500202</t>
+  </si>
+  <si>
+    <t>0.00500131</t>
+  </si>
+  <si>
+    <t>0.00600243</t>
+  </si>
+  <si>
+    <t>0.00500417</t>
+  </si>
+  <si>
+    <t>0.00700402</t>
+  </si>
+  <si>
+    <t>0.00700784</t>
+  </si>
+  <si>
+    <t>0.00500274</t>
+  </si>
+  <si>
+    <t>0.00450659</t>
+  </si>
+  <si>
+    <t>0.00500226</t>
+  </si>
+  <si>
+    <t>0.00900578</t>
+  </si>
+  <si>
+    <t>0.00900626</t>
+  </si>
+  <si>
+    <t>0.0080061</t>
+  </si>
+  <si>
+    <t>0.00500345</t>
+  </si>
+  <si>
+    <t>0.0060122</t>
+  </si>
+  <si>
+    <t>0.00800514</t>
+  </si>
+  <si>
+    <t>0.00700307</t>
+  </si>
+  <si>
+    <t>0.00900507</t>
+  </si>
+  <si>
+    <t>0.00750661</t>
+  </si>
+  <si>
+    <t>0.00550365</t>
+  </si>
+  <si>
+    <t>0.0110066</t>
+  </si>
+  <si>
+    <t>0.0120087</t>
+  </si>
+  <si>
+    <t>0.0120084</t>
+  </si>
+  <si>
+    <t>0.0115108</t>
+  </si>
+  <si>
+    <t>0.0125117</t>
+  </si>
+  <si>
+    <t>0.0120091</t>
+  </si>
+  <si>
+    <t>0.0120065</t>
+  </si>
+  <si>
+    <t>0.0110068</t>
+  </si>
+  <si>
+    <t>0.0109973</t>
+  </si>
+  <si>
+    <t>0.0115092</t>
+  </si>
+  <si>
+    <t>0.011507</t>
+  </si>
+  <si>
+    <t>0.0115118</t>
+  </si>
+  <si>
+    <t>0.0110071</t>
+  </si>
+  <si>
+    <t>0.0110042</t>
+  </si>
+  <si>
+    <t>0.0120187</t>
+  </si>
+  <si>
+    <t>0.0125091</t>
+  </si>
+  <si>
+    <t>0.018013</t>
+  </si>
+  <si>
+    <t>0.0130098</t>
+  </si>
+  <si>
+    <t>0.0150084</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>19.7415</t>
+  </si>
+  <si>
+    <t>19.7306</t>
+  </si>
+  <si>
+    <t>19.7813</t>
+  </si>
+  <si>
+    <t>19.9047</t>
+  </si>
+  <si>
+    <t>19.932</t>
+  </si>
+  <si>
+    <t>20.4486</t>
+  </si>
+  <si>
+    <t>20.0534</t>
+  </si>
+  <si>
+    <t>20.1391</t>
+  </si>
+  <si>
+    <t>20.2237</t>
+  </si>
+  <si>
+    <t>20.2159</t>
+  </si>
+  <si>
+    <t>20.3429</t>
+  </si>
+  <si>
+    <t>20.4831</t>
+  </si>
+  <si>
+    <t>20.5029</t>
+  </si>
+  <si>
+    <t>20.6781</t>
+  </si>
+  <si>
+    <t>20.2943</t>
+  </si>
+  <si>
+    <t>20.2365</t>
+  </si>
+  <si>
+    <t>20.4924</t>
+  </si>
+  <si>
+    <t>20.4507</t>
+  </si>
+  <si>
+    <t>20.603</t>
+  </si>
+  <si>
+    <t>20.3856</t>
+  </si>
+  <si>
+    <t>20.3273</t>
+  </si>
+  <si>
+    <t>20.7911</t>
+  </si>
+  <si>
+    <t>20.7376</t>
+  </si>
+  <si>
+    <t>20.4422</t>
+  </si>
+  <si>
+    <t>19.6972</t>
+  </si>
+  <si>
+    <t>20.264</t>
+  </si>
+  <si>
+    <t>20.1608</t>
+  </si>
+  <si>
+    <t>20.2524</t>
+  </si>
+  <si>
+    <t>20.4037</t>
+  </si>
+  <si>
+    <t>20.3387</t>
+  </si>
+  <si>
+    <t>20.4815</t>
+  </si>
+  <si>
+    <t>20.6071</t>
+  </si>
+  <si>
+    <t>21.1894</t>
+  </si>
+  <si>
+    <t>20.8682</t>
+  </si>
+  <si>
+    <t>20.5071</t>
+  </si>
+  <si>
+    <t>20.5726</t>
+  </si>
+  <si>
+    <t>20.4691</t>
+  </si>
+  <si>
+    <t>24.9253</t>
+  </si>
+  <si>
+    <t>25.4685</t>
+  </si>
+  <si>
+    <t>21.2825</t>
+  </si>
+  <si>
+    <t>21.0232</t>
+  </si>
+  <si>
+    <t>20.7696</t>
+  </si>
+  <si>
+    <t>20.4686</t>
+  </si>
+  <si>
+    <t>20.3218</t>
+  </si>
+  <si>
+    <t>20.4805</t>
+  </si>
+  <si>
+    <t>21.972</t>
+  </si>
+  <si>
+    <t>21.0909</t>
+  </si>
+  <si>
+    <t>20.5391</t>
+  </si>
+  <si>
+    <t>16.7537</t>
+  </si>
+  <si>
+    <t>10.02</t>
+  </si>
+  <si>
+    <t>9.62609</t>
+  </si>
+  <si>
+    <t>11.3871</t>
+  </si>
+  <si>
+    <t>11.6545</t>
+  </si>
+  <si>
+    <t>9.00915</t>
+  </si>
+  <si>
+    <t>13.214</t>
+  </si>
+  <si>
+    <t>9.75345</t>
+  </si>
+  <si>
+    <t>8.94487</t>
+  </si>
+  <si>
+    <t>9.301</t>
+  </si>
+  <si>
+    <t>9.76725</t>
+  </si>
+  <si>
+    <t>9.3867</t>
+  </si>
+  <si>
+    <t>9.52583</t>
+  </si>
+  <si>
+    <t>9.99055</t>
+  </si>
+  <si>
+    <t>11.7116</t>
+  </si>
+  <si>
+    <t>10.3883</t>
+  </si>
+  <si>
+    <t>9.63281</t>
+  </si>
+  <si>
+    <t>9.22784</t>
+  </si>
+  <si>
+    <t>10.1954</t>
+  </si>
+  <si>
+    <t>10.2027</t>
+  </si>
+  <si>
+    <t>9.8571</t>
+  </si>
+  <si>
+    <t>10.6553</t>
+  </si>
+  <si>
+    <t>10.0051</t>
+  </si>
+  <si>
+    <t>9.86279</t>
   </si>
 </sst>
 </file>
@@ -155,7 +614,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +649,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
@@ -341,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -361,9 +826,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -376,13 +838,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -394,10 +853,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -682,7 +1156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA4B54F-EE09-4145-9D9B-9999E1CAE33E}">
   <dimension ref="D2:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -696,113 +1170,113 @@
   <sheetData>
     <row r="2" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="4:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
+      <c r="D4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>23</v>
+      <c r="D5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="18">
+      <c r="D6" s="11">
         <v>1</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>0</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>1000</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>1000</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>1100</v>
       </c>
     </row>
     <row r="7" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="18">
+      <c r="D7" s="11">
         <v>2</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>5000</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>5500</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>5500</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>5550</v>
       </c>
     </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="18">
+      <c r="D8" s="11">
         <v>3</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>100</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>200</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>200</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>210</v>
       </c>
     </row>
     <row r="9" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="18">
+      <c r="D9" s="11">
         <v>4</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>600</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>650</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>650</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>700</v>
       </c>
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -816,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E2:I12"/>
+  <dimension ref="E2:J105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F8"/>
+      <selection activeCell="E2" sqref="E2:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,21 +1302,25 @@
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E2" s="7" t="s">
+    <row r="2" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="19"/>
       <c r="H2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="5:9" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
@@ -852,11 +1330,14 @@
       <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="2">
+        <v>49</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
@@ -867,100 +1348,1205 @@
         <v>2</v>
       </c>
       <c r="I4" s="2">
-        <v>41.741700000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2">
-        <v>6000</v>
+        <v>1</v>
       </c>
       <c r="H5" s="4">
         <v>3</v>
       </c>
       <c r="I5" s="2">
-        <v>44.544499999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2">
-        <v>999</v>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="H6" s="4">
         <v>4</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E7" s="3" t="s">
+      <c r="I6" s="2">
+        <v>52</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="H7" s="4">
         <v>5</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="I7" s="2">
+        <v>51</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H8" s="4">
         <v>6</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="2">
+        <v>49</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H9" s="4">
         <v>7</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="2">
+        <v>47</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H10" s="4">
         <v>8</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="2">
+        <v>48</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H11" s="4">
         <v>9</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="2">
+        <v>49</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H12" s="4">
         <v>10</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="2">
+        <v>48</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="4">
+        <v>11</v>
+      </c>
+      <c r="I13" s="2">
+        <v>48</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="4">
+        <v>12</v>
+      </c>
+      <c r="I14" s="2">
+        <v>46</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="4">
+        <v>13</v>
+      </c>
+      <c r="I15" s="2">
+        <v>47</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="4">
+        <v>14</v>
+      </c>
+      <c r="I16" s="2">
+        <v>47</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="4">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2">
+        <v>46</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H18" s="4">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2">
+        <v>47</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H19" s="4">
+        <v>17</v>
+      </c>
+      <c r="I19" s="2">
+        <v>49</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H20" s="4">
+        <v>18</v>
+      </c>
+      <c r="I20" s="2">
+        <v>50</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="4">
         <v>19</v>
       </c>
+      <c r="I21" s="2">
+        <v>51</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H22" s="4">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2">
+        <v>48</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H23" s="4">
+        <v>21</v>
+      </c>
+      <c r="I23" s="2">
+        <v>47</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H24" s="4">
+        <v>22</v>
+      </c>
+      <c r="I24" s="2">
+        <v>47</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H25" s="4">
+        <v>23</v>
+      </c>
+      <c r="I25" s="2">
+        <v>47</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H26" s="4">
+        <v>24</v>
+      </c>
+      <c r="I26" s="2">
+        <v>46</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="H29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>56</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2">
+        <v>56</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+      <c r="H32" s="4">
+        <v>3</v>
+      </c>
+      <c r="I32" s="2">
+        <v>58</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="4">
+        <v>4</v>
+      </c>
+      <c r="I33" s="2">
+        <v>56</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="4">
+        <v>5</v>
+      </c>
+      <c r="I34" s="2">
+        <v>52</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H35" s="4">
+        <v>6</v>
+      </c>
+      <c r="I35" s="2">
+        <v>54</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H36" s="4">
+        <v>7</v>
+      </c>
+      <c r="I36" s="2">
+        <v>56</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H37" s="4">
+        <v>8</v>
+      </c>
+      <c r="I37" s="2">
+        <v>56</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H38" s="4">
+        <v>9</v>
+      </c>
+      <c r="I38" s="2">
+        <v>58</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H39" s="4">
+        <v>10</v>
+      </c>
+      <c r="I39" s="2">
+        <v>58</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H40" s="4">
+        <v>11</v>
+      </c>
+      <c r="I40" s="2">
+        <v>60</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H41" s="4">
+        <v>12</v>
+      </c>
+      <c r="I41" s="2">
+        <v>62</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H42" s="4">
+        <v>13</v>
+      </c>
+      <c r="I42" s="2">
+        <v>60</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H43" s="4">
+        <v>14</v>
+      </c>
+      <c r="I43" s="2">
+        <v>60</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H44" s="4">
+        <v>15</v>
+      </c>
+      <c r="I44" s="2">
+        <v>62</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H45" s="4">
+        <v>16</v>
+      </c>
+      <c r="I45" s="2">
+        <v>62</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H46" s="4">
+        <v>17</v>
+      </c>
+      <c r="I46" s="2">
+        <v>62</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H47" s="4">
+        <v>18</v>
+      </c>
+      <c r="I47" s="2">
+        <v>62</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H48" s="4">
+        <v>19</v>
+      </c>
+      <c r="I48" s="2">
+        <v>60</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H49" s="4">
+        <v>20</v>
+      </c>
+      <c r="I49" s="2">
+        <v>58</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H50" s="4">
+        <v>21</v>
+      </c>
+      <c r="I50" s="2">
+        <v>56</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H51" s="4">
+        <v>22</v>
+      </c>
+      <c r="I51" s="2">
+        <v>60</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H52" s="4">
+        <v>23</v>
+      </c>
+      <c r="I52" s="2">
+        <v>48</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H53" s="4">
+        <v>24</v>
+      </c>
+      <c r="I53" s="2">
+        <v>48</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E55" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="19"/>
+      <c r="H55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J55" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H56" s="4">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2">
+        <v>70</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="4">
+        <v>2</v>
+      </c>
+      <c r="I57" s="2">
+        <v>70</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="2">
+        <v>3</v>
+      </c>
+      <c r="H58" s="4">
+        <v>3</v>
+      </c>
+      <c r="I58" s="2">
+        <v>70</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="4">
+        <v>4</v>
+      </c>
+      <c r="I59" s="2">
+        <v>60</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="4">
+        <v>5</v>
+      </c>
+      <c r="I60" s="2">
+        <v>50</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H61" s="4">
+        <v>6</v>
+      </c>
+      <c r="I61" s="2">
+        <v>60</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H62" s="4">
+        <v>7</v>
+      </c>
+      <c r="I62" s="2">
+        <v>60</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H63" s="4">
+        <v>8</v>
+      </c>
+      <c r="I63" s="2">
+        <v>60</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H64" s="4">
+        <v>9</v>
+      </c>
+      <c r="I64" s="2">
+        <v>50</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H65" s="4">
+        <v>10</v>
+      </c>
+      <c r="I65" s="2">
+        <v>50</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H66" s="4">
+        <v>11</v>
+      </c>
+      <c r="I66" s="2">
+        <v>50</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H67" s="4">
+        <v>12</v>
+      </c>
+      <c r="I67" s="2">
+        <v>50</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H68" s="4">
+        <v>13</v>
+      </c>
+      <c r="I68" s="2">
+        <v>50</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H69" s="4">
+        <v>14</v>
+      </c>
+      <c r="I69" s="2">
+        <v>50</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H70" s="4">
+        <v>15</v>
+      </c>
+      <c r="I70" s="2">
+        <v>50</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H71" s="4">
+        <v>16</v>
+      </c>
+      <c r="I71" s="2">
+        <v>30</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H72" s="4">
+        <v>17</v>
+      </c>
+      <c r="I72" s="2">
+        <v>30</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H73" s="4">
+        <v>18</v>
+      </c>
+      <c r="I73" s="2">
+        <v>40</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H74" s="4">
+        <v>19</v>
+      </c>
+      <c r="I74" s="2">
+        <v>40</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H75" s="4">
+        <v>20</v>
+      </c>
+      <c r="I75" s="2">
+        <v>30</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H76" s="4">
+        <v>21</v>
+      </c>
+      <c r="I76" s="2">
+        <v>30</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H77" s="4">
+        <v>22</v>
+      </c>
+      <c r="I77" s="2">
+        <v>30</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H78" s="4">
+        <v>23</v>
+      </c>
+      <c r="I78" s="2">
+        <v>30</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H79" s="4">
+        <v>24</v>
+      </c>
+      <c r="I79" s="2">
+        <v>30</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E81" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81" s="19"/>
+      <c r="H81" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J81" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H82" s="4">
+        <v>1</v>
+      </c>
+      <c r="I82" s="2">
+        <v>36</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="4">
+        <v>2</v>
+      </c>
+      <c r="I83" s="2">
+        <v>36</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="2">
+        <v>4</v>
+      </c>
+      <c r="H84" s="4">
+        <v>3</v>
+      </c>
+      <c r="I84" s="2">
+        <v>38</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" s="4">
+        <v>4</v>
+      </c>
+      <c r="I85" s="2">
+        <v>38</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" s="4">
+        <v>5</v>
+      </c>
+      <c r="I86" s="2">
+        <v>30</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H87" s="4">
+        <v>6</v>
+      </c>
+      <c r="I87" s="2">
+        <v>26</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H88" s="4">
+        <v>7</v>
+      </c>
+      <c r="I88" s="2">
+        <v>26</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H89" s="4">
+        <v>8</v>
+      </c>
+      <c r="I89" s="2">
+        <v>26</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H90" s="4">
+        <v>9</v>
+      </c>
+      <c r="I90" s="2">
+        <v>26</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H91" s="4">
+        <v>10</v>
+      </c>
+      <c r="I91" s="2">
+        <v>24</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H92" s="4">
+        <v>11</v>
+      </c>
+      <c r="I92" s="2">
+        <v>26</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H93" s="4">
+        <v>12</v>
+      </c>
+      <c r="I93" s="2">
+        <v>22</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H94" s="4">
+        <v>13</v>
+      </c>
+      <c r="I94" s="2">
+        <v>20</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H95" s="4">
+        <v>14</v>
+      </c>
+      <c r="I95" s="2">
+        <v>20</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H96" s="4">
+        <v>15</v>
+      </c>
+      <c r="I96" s="2">
+        <v>20</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H97" s="4">
+        <v>16</v>
+      </c>
+      <c r="I97" s="2">
+        <v>20</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H98" s="4">
+        <v>17</v>
+      </c>
+      <c r="I98" s="2">
+        <v>22</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H99" s="4">
+        <v>18</v>
+      </c>
+      <c r="I99" s="2">
+        <v>22</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H100" s="4">
+        <v>19</v>
+      </c>
+      <c r="I100" s="2">
+        <v>22</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H101" s="4">
+        <v>20</v>
+      </c>
+      <c r="I101" s="2">
+        <v>18</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H102" s="4">
+        <v>21</v>
+      </c>
+      <c r="I102" s="2">
+        <v>18</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H103" s="4">
+        <v>22</v>
+      </c>
+      <c r="I103" s="2">
+        <v>18</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H104" s="4">
+        <v>23</v>
+      </c>
+      <c r="I104" s="2">
+        <v>20</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H105" s="4">
+        <v>24</v>
+      </c>
+      <c r="I105" s="2">
+        <v>18</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E81:F81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -969,14 +2555,1257 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B84295-B517-4CF6-95F4-93D327A7FB03}">
-  <dimension ref="A1"/>
+  <dimension ref="E2:J104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q83" sqref="Q83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>95</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>95</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>95</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="H6" s="4">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>95</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>95</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="4">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2">
+        <v>95</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="4">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2">
+        <v>95</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="4">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2">
+        <v>95</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="4">
+        <v>9</v>
+      </c>
+      <c r="I11" s="2">
+        <v>95</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="4">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2">
+        <v>95</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="4">
+        <v>11</v>
+      </c>
+      <c r="I13" s="2">
+        <v>95</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="4">
+        <v>12</v>
+      </c>
+      <c r="I14" s="2">
+        <v>95</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="4">
+        <v>13</v>
+      </c>
+      <c r="I15" s="2">
+        <v>90</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="4">
+        <v>14</v>
+      </c>
+      <c r="I16" s="2">
+        <v>85</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="4">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2">
+        <v>85</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H18" s="4">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2">
+        <v>85</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H19" s="4">
+        <v>17</v>
+      </c>
+      <c r="I19" s="2">
+        <v>85</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H20" s="4">
+        <v>18</v>
+      </c>
+      <c r="I20" s="2">
+        <v>80</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="4">
+        <v>19</v>
+      </c>
+      <c r="I21" s="2">
+        <v>80</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H22" s="4">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2">
+        <v>75</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H23" s="4">
+        <v>21</v>
+      </c>
+      <c r="I23" s="2">
+        <v>75</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H24" s="4">
+        <v>22</v>
+      </c>
+      <c r="I24" s="2">
+        <v>75</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H25" s="4">
+        <v>23</v>
+      </c>
+      <c r="I25" s="2">
+        <v>75</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H26" s="4">
+        <v>24</v>
+      </c>
+      <c r="I26" s="2">
+        <v>75</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="H28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>95</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2</v>
+      </c>
+      <c r="I30" s="2">
+        <v>95</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2</v>
+      </c>
+      <c r="H31" s="4">
+        <v>3</v>
+      </c>
+      <c r="I31" s="2">
+        <v>95</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="H32" s="4">
+        <v>4</v>
+      </c>
+      <c r="I32" s="2">
+        <v>95</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="4">
+        <v>5</v>
+      </c>
+      <c r="I33" s="2">
+        <v>95</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H34" s="4">
+        <v>6</v>
+      </c>
+      <c r="I34" s="2">
+        <v>95</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H35" s="4">
+        <v>7</v>
+      </c>
+      <c r="I35" s="2">
+        <v>95</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H36" s="4">
+        <v>8</v>
+      </c>
+      <c r="I36" s="2">
+        <v>95</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H37" s="4">
+        <v>9</v>
+      </c>
+      <c r="I37" s="2">
+        <v>95</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H38" s="4">
+        <v>10</v>
+      </c>
+      <c r="I38" s="2">
+        <v>95</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H39" s="4">
+        <v>11</v>
+      </c>
+      <c r="I39" s="2">
+        <v>95</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H40" s="4">
+        <v>12</v>
+      </c>
+      <c r="I40" s="2">
+        <v>95</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H41" s="4">
+        <v>13</v>
+      </c>
+      <c r="I41" s="2">
+        <v>90</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H42" s="4">
+        <v>14</v>
+      </c>
+      <c r="I42" s="2">
+        <v>85</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H43" s="4">
+        <v>15</v>
+      </c>
+      <c r="I43" s="2">
+        <v>85</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H44" s="4">
+        <v>16</v>
+      </c>
+      <c r="I44" s="2">
+        <v>85</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H45" s="4">
+        <v>17</v>
+      </c>
+      <c r="I45" s="2">
+        <v>85</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H46" s="4">
+        <v>18</v>
+      </c>
+      <c r="I46" s="2">
+        <v>80</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H47" s="4">
+        <v>19</v>
+      </c>
+      <c r="I47" s="2">
+        <v>80</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H48" s="4">
+        <v>20</v>
+      </c>
+      <c r="I48" s="2">
+        <v>75</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H49" s="4">
+        <v>21</v>
+      </c>
+      <c r="I49" s="2">
+        <v>75</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H50" s="4">
+        <v>22</v>
+      </c>
+      <c r="I50" s="2">
+        <v>75</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H51" s="4">
+        <v>23</v>
+      </c>
+      <c r="I51" s="2">
+        <v>75</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H52" s="4">
+        <v>24</v>
+      </c>
+      <c r="I52" s="2">
+        <v>75</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E54" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="19"/>
+      <c r="H54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J54" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H55" s="4">
+        <v>1</v>
+      </c>
+      <c r="I55" s="2">
+        <v>100</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" s="4">
+        <v>2</v>
+      </c>
+      <c r="I56" s="2">
+        <v>100</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="2">
+        <v>3</v>
+      </c>
+      <c r="H57" s="4">
+        <v>3</v>
+      </c>
+      <c r="I57" s="2">
+        <v>100</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="H58" s="4">
+        <v>4</v>
+      </c>
+      <c r="I58" s="2">
+        <v>100</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="4">
+        <v>5</v>
+      </c>
+      <c r="I59" s="2">
+        <v>100</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H60" s="4">
+        <v>6</v>
+      </c>
+      <c r="I60" s="2">
+        <v>100</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H61" s="4">
+        <v>7</v>
+      </c>
+      <c r="I61" s="2">
+        <v>90</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H62" s="4">
+        <v>8</v>
+      </c>
+      <c r="I62" s="2">
+        <v>90</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H63" s="4">
+        <v>9</v>
+      </c>
+      <c r="I63" s="2">
+        <v>90</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H64" s="4">
+        <v>10</v>
+      </c>
+      <c r="I64" s="2">
+        <v>90</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H65" s="4">
+        <v>11</v>
+      </c>
+      <c r="I65" s="2">
+        <v>90</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H66" s="4">
+        <v>12</v>
+      </c>
+      <c r="I66" s="2">
+        <v>90</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H67" s="4">
+        <v>13</v>
+      </c>
+      <c r="I67" s="2">
+        <v>90</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H68" s="4">
+        <v>14</v>
+      </c>
+      <c r="I68" s="2">
+        <v>90</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H69" s="4">
+        <v>15</v>
+      </c>
+      <c r="I69" s="2">
+        <v>90</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H70" s="4">
+        <v>16</v>
+      </c>
+      <c r="I70" s="2">
+        <v>80</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H71" s="4">
+        <v>17</v>
+      </c>
+      <c r="I71" s="2">
+        <v>80</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H72" s="4">
+        <v>18</v>
+      </c>
+      <c r="I72" s="2">
+        <v>80</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H73" s="4">
+        <v>19</v>
+      </c>
+      <c r="I73" s="2">
+        <v>80</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H74" s="4">
+        <v>20</v>
+      </c>
+      <c r="I74" s="2">
+        <v>80</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H75" s="4">
+        <v>21</v>
+      </c>
+      <c r="I75" s="2">
+        <v>80</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H76" s="4">
+        <v>22</v>
+      </c>
+      <c r="I76" s="2">
+        <v>80</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H77" s="4">
+        <v>23</v>
+      </c>
+      <c r="I77" s="2">
+        <v>80</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H78" s="4">
+        <v>24</v>
+      </c>
+      <c r="I78" s="2">
+        <v>80</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E80" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" s="19"/>
+      <c r="H80" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J80" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H81" s="4">
+        <v>1</v>
+      </c>
+      <c r="I81" s="21">
+        <v>88</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H82" s="4">
+        <v>2</v>
+      </c>
+      <c r="I82" s="22">
+        <v>88</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="2">
+        <v>4</v>
+      </c>
+      <c r="H83" s="4">
+        <v>3</v>
+      </c>
+      <c r="I83" s="21">
+        <v>84</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="6"/>
+      <c r="H84" s="4">
+        <v>4</v>
+      </c>
+      <c r="I84" s="22">
+        <v>78</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" s="4">
+        <v>5</v>
+      </c>
+      <c r="I85" s="21">
+        <v>72</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="86" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H86" s="4">
+        <v>6</v>
+      </c>
+      <c r="I86" s="22">
+        <v>70</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H87" s="4">
+        <v>7</v>
+      </c>
+      <c r="I87" s="21">
+        <v>64</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H88" s="4">
+        <v>8</v>
+      </c>
+      <c r="I88" s="22">
+        <v>56</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H89" s="4">
+        <v>9</v>
+      </c>
+      <c r="I89" s="21">
+        <v>56</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H90" s="4">
+        <v>10</v>
+      </c>
+      <c r="I90" s="22">
+        <v>52</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H91" s="4">
+        <v>11</v>
+      </c>
+      <c r="I91" s="21">
+        <v>52</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="92" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H92" s="4">
+        <v>12</v>
+      </c>
+      <c r="I92" s="22">
+        <v>50</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H93" s="4">
+        <v>13</v>
+      </c>
+      <c r="I93" s="21">
+        <v>46</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H94" s="4">
+        <v>14</v>
+      </c>
+      <c r="I94" s="22">
+        <v>44</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="95" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H95" s="4">
+        <v>15</v>
+      </c>
+      <c r="I95" s="21">
+        <v>44</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H96" s="4">
+        <v>16</v>
+      </c>
+      <c r="I96" s="22">
+        <v>44</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H97" s="4">
+        <v>17</v>
+      </c>
+      <c r="I97" s="21">
+        <v>40</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H98" s="4">
+        <v>18</v>
+      </c>
+      <c r="I98" s="22">
+        <v>40</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H99" s="4">
+        <v>19</v>
+      </c>
+      <c r="I99" s="21">
+        <v>34</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H100" s="4">
+        <v>20</v>
+      </c>
+      <c r="I100" s="22">
+        <v>30</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H101" s="4">
+        <v>21</v>
+      </c>
+      <c r="I101" s="21">
+        <v>28</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="102" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H102" s="4">
+        <v>22</v>
+      </c>
+      <c r="I102" s="22">
+        <v>28</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="103" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H103" s="4">
+        <v>23</v>
+      </c>
+      <c r="I103" s="21">
+        <v>28</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="104" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H104" s="4">
+        <v>24</v>
+      </c>
+      <c r="I104" s="22">
+        <v>26</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E80:F80"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/knn_result.xlsx
+++ b/knn_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Informations" sheetId="3" r:id="rId1"/>
@@ -658,7 +658,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -802,11 +802,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -872,6 +898,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1292,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E2:J105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:J26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,10 +1647,10 @@
       </c>
     </row>
     <row r="29" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F29" s="19"/>
+      <c r="F29" s="24"/>
       <c r="H29" s="5" t="s">
         <v>5</v>
       </c>
@@ -1924,10 +1956,10 @@
       </c>
     </row>
     <row r="55" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F55" s="19"/>
+      <c r="F55" s="24"/>
       <c r="H55" s="5" t="s">
         <v>5</v>
       </c>
@@ -2233,10 +2265,10 @@
       </c>
     </row>
     <row r="81" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E81" s="19" t="s">
+      <c r="E81" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F81" s="19"/>
+      <c r="F81" s="24"/>
       <c r="H81" s="5" t="s">
         <v>5</v>
       </c>
@@ -2557,8 +2589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B84295-B517-4CF6-95F4-93D327A7FB03}">
   <dimension ref="E2:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q83" sqref="Q83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
